--- a/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>SKVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,14 +761,14 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,14 +855,14 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,26 +997,26 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1008,13 +1027,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,43 +1107,46 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>-900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1154,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1205,11 +1238,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1267,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,7 +1314,7 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1284,7 +1323,7 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1293,60 +1332,63 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
       </c>
       <c r="O23" s="3">
         <v>-500</v>
@@ -1354,8 +1396,11 @@
       <c r="P23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,43 +1490,46 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
       </c>
       <c r="O26" s="3">
         <v>-500</v>
@@ -1486,43 +1537,46 @@
       <c r="P26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
       </c>
       <c r="O27" s="3">
         <v>-500</v>
@@ -1530,8 +1584,11 @@
       <c r="P27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1733,11 +1802,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1750,43 +1819,46 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
       </c>
       <c r="O33" s="3">
         <v>-500</v>
@@ -1794,8 +1866,11 @@
       <c r="P33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,43 +1913,46 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
       </c>
       <c r="O35" s="3">
         <v>-500</v>
@@ -1882,57 +1960,63 @@
       <c r="P35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1997,11 +2083,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2076,17 +2168,17 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
       <c r="K43" s="3">
+        <v>200</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2129,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2173,13 +2271,13 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2208,22 +2309,22 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,10 +2471,13 @@
         <v>200</v>
       </c>
       <c r="P49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,19 +2567,22 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2478,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2560,31 +2685,34 @@
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
       </c>
       <c r="K54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L54" s="3">
         <v>600</v>
       </c>
       <c r="M54" s="3">
+        <v>600</v>
+      </c>
+      <c r="N54" s="3">
         <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,184 +2748,197 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>1000</v>
       </c>
       <c r="H57" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>800</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1200</v>
       </c>
       <c r="M57" s="3">
         <v>1200</v>
       </c>
       <c r="N57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>5200</v>
       </c>
       <c r="M58" s="3">
         <v>5200</v>
       </c>
       <c r="N58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O58" s="3">
         <v>5000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1200</v>
       </c>
       <c r="H59" s="3">
         <v>1200</v>
       </c>
       <c r="I59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
-      </c>
-      <c r="N59" s="3">
-        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>800</v>
       </c>
       <c r="P59" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>7400</v>
       </c>
       <c r="L60" s="3">
         <v>7400</v>
       </c>
       <c r="M60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="N60" s="3">
         <v>7300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>7400</v>
       </c>
       <c r="L66" s="3">
         <v>7400</v>
       </c>
       <c r="M66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="N66" s="3">
         <v>7300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,31 +3611,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-6800</v>
       </c>
       <c r="K76" s="3">
         <v>-6800</v>
@@ -3465,16 +3650,19 @@
         <v>-6800</v>
       </c>
       <c r="N76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="O76" s="3">
         <v>-6600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,92 +3705,98 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
       </c>
       <c r="O81" s="3">
         <v>-500</v>
@@ -3610,8 +3804,11 @@
       <c r="P81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4105,16 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3919,25 +4135,28 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3974,20 +4194,20 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,13 +4312,16 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4351,25 +4596,28 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4439,14 +4690,14 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SKVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,90 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -764,33 +772,39 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -828,16 +842,22 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -858,25 +878,31 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,41 +1022,47 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1030,13 +1070,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1110,90 +1164,102 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>-900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>-400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,23 +1277,25 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1241,14 +1309,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1258,55 +1326,67 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,34 +1397,34 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>400</v>
+      </c>
+      <c r="S22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-300</v>
-      </c>
       <c r="F23" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
-        <v>-300</v>
-      </c>
       <c r="F26" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-300</v>
-      </c>
       <c r="F27" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,23 +1909,29 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1805,14 +1945,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1822,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-300</v>
-      </c>
       <c r="F33" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-300</v>
-      </c>
       <c r="F35" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2086,22 +2260,28 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2171,20 +2357,20 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2194,16 +2380,22 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2227,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2274,27 +2472,33 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2312,31 +2516,37 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,16 +2592,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,10 +2696,16 @@
         <v>200</v>
       </c>
       <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+      <c r="S49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2600,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2688,31 +2940,37 @@
         <v>200</v>
       </c>
       <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,204 +3009,230 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1600</v>
       </c>
       <c r="L59" s="3">
         <v>1700</v>
       </c>
       <c r="M59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4900</v>
       </c>
       <c r="I60" s="3">
         <v>5300</v>
       </c>
       <c r="J60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4900</v>
       </c>
       <c r="I66" s="3">
         <v>5300</v>
       </c>
       <c r="J66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L66" s="3">
         <v>7600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-33300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-32800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-32500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-31900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-31600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-31400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-32000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-31700</v>
       </c>
       <c r="M72" s="3">
         <v>-31600</v>
       </c>
       <c r="N72" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-31000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-30400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-29900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-29400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,37 +3980,43 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-4700</v>
       </c>
       <c r="I76" s="3">
         <v>-5100</v>
       </c>
       <c r="J76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-6800</v>
       </c>
       <c r="M76" s="3">
         <v>-6800</v>
@@ -3653,16 +4025,22 @@
         <v>-6800</v>
       </c>
       <c r="O76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-6600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-300</v>
-      </c>
       <c r="F81" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,20 +4536,26 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -4138,13 +4572,13 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4200,20 +4642,20 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,20 +4769,26 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4599,16 +5091,16 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -4616,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4693,21 +5197,27 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>SKVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,98 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -778,14 +782,14 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,8 +813,8 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,8 +869,8 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -884,14 +894,14 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,44 +1045,47 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1076,13 +1096,16 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1170,51 +1197,54 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>-900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1223,43 +1253,46 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1294,11 +1328,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1315,11 +1349,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1403,7 +1443,7 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1412,7 +1452,7 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -1421,69 +1461,72 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
+        <v>400</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
       <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-500</v>
       </c>
       <c r="R23" s="3">
         <v>-500</v>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,52 +1646,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-500</v>
       </c>
       <c r="R26" s="3">
         <v>-500</v>
@@ -1650,52 +1702,55 @@
       <c r="S26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
       </c>
       <c r="R27" s="3">
         <v>-500</v>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1930,11 +2000,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1951,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1968,52 +2038,55 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-500</v>
       </c>
       <c r="R33" s="3">
         <v>-500</v>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,52 +2150,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-500</v>
       </c>
       <c r="R35" s="3">
         <v>-500</v>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2266,11 +2353,11 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2363,17 +2456,17 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2397,8 +2493,8 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2425,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2478,13 +2577,13 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2492,17 +2591,20 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2522,22 +2624,22 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2609,8 +2717,8 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,10 +2813,13 @@
         <v>200</v>
       </c>
       <c r="S49" s="3">
+        <v>200</v>
+      </c>
+      <c r="T49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2846,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2946,31 +3072,34 @@
         <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
       </c>
       <c r="N54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>600</v>
       </c>
       <c r="P54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>1000</v>
       </c>
       <c r="K57" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
       <c r="M57" s="3">
+        <v>800</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1200</v>
       </c>
       <c r="P57" s="3">
         <v>1200</v>
       </c>
       <c r="Q57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,167 +3210,176 @@
         <v>800</v>
       </c>
       <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>5200</v>
       </c>
       <c r="P58" s="3">
         <v>5200</v>
       </c>
       <c r="Q58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R58" s="3">
         <v>5000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1200</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
       </c>
       <c r="L59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>800</v>
       </c>
       <c r="R59" s="3">
         <v>800</v>
       </c>
       <c r="S59" s="3">
+        <v>800</v>
+      </c>
+      <c r="T59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>7400</v>
       </c>
       <c r="O60" s="3">
         <v>7400</v>
       </c>
       <c r="P60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>7300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>7400</v>
       </c>
       <c r="O66" s="3">
         <v>7400</v>
       </c>
       <c r="P66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-30400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,40 +4169,43 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-6800</v>
       </c>
       <c r="N76" s="3">
         <v>-6800</v>
@@ -4031,16 +4217,19 @@
         <v>-6800</v>
       </c>
       <c r="Q76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="R76" s="3">
         <v>-6600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,110 +4281,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-500</v>
       </c>
       <c r="R81" s="3">
         <v>-500</v>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,23 +4756,26 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -4578,25 +4795,28 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4648,17 +4869,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4787,11 +5017,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5097,25 +5343,28 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5203,14 +5455,14 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -785,14 +788,14 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +822,8 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -858,8 +864,11 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +881,8 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -897,14 +906,14 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,36 +1078,36 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1099,13 +1118,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1200,54 +1226,57 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>-900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1256,43 +1285,46 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1345,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1331,11 +1364,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1352,11 +1385,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1369,64 +1402,70 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +1485,7 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1455,7 +1494,7 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
@@ -1464,72 +1503,75 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>400</v>
       </c>
       <c r="R22" s="3">
+        <v>400</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
       </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-500</v>
       </c>
       <c r="S23" s="3">
         <v>-500</v>
@@ -1537,8 +1579,11 @@
       <c r="T23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,55 +1697,58 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-500</v>
       </c>
       <c r="S26" s="3">
         <v>-500</v>
@@ -1705,55 +1756,58 @@
       <c r="T26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-500</v>
       </c>
       <c r="S27" s="3">
         <v>-500</v>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2051,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2003,11 +2072,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2024,11 +2093,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2041,55 +2110,58 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-500</v>
       </c>
       <c r="S33" s="3">
         <v>-500</v>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,55 +2228,58 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-500</v>
       </c>
       <c r="S35" s="3">
         <v>-500</v>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2356,11 +2442,11 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2459,17 +2551,17 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2496,8 +2591,8 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -2524,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2580,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2594,20 +2692,23 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2627,22 +2728,22 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2720,8 +2827,8 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,10 +2926,13 @@
         <v>200</v>
       </c>
       <c r="T49" s="3">
+        <v>200</v>
+      </c>
+      <c r="U49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2969,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3075,31 +3200,34 @@
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
       </c>
       <c r="O54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>600</v>
       </c>
       <c r="Q54" s="3">
+        <v>600</v>
+      </c>
+      <c r="R54" s="3">
         <v>500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,55 +3281,58 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>1000</v>
       </c>
       <c r="L57" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M57" s="3">
         <v>800</v>
       </c>
       <c r="N57" s="3">
+        <v>800</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1200</v>
       </c>
       <c r="Q57" s="3">
         <v>1200</v>
       </c>
       <c r="R57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,178 +3346,187 @@
         <v>800</v>
       </c>
       <c r="G58" s="3">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="H58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>5200</v>
       </c>
       <c r="Q58" s="3">
         <v>5200</v>
       </c>
       <c r="R58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="S58" s="3">
         <v>5000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1200</v>
       </c>
       <c r="L59" s="3">
         <v>1200</v>
       </c>
       <c r="M59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
-      </c>
-      <c r="R59" s="3">
-        <v>800</v>
       </c>
       <c r="S59" s="3">
         <v>800</v>
       </c>
       <c r="T59" s="3">
+        <v>800</v>
+      </c>
+      <c r="U59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
-        <v>3200</v>
-      </c>
       <c r="H60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>7400</v>
       </c>
       <c r="P60" s="3">
         <v>7400</v>
       </c>
       <c r="Q60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="R60" s="3">
         <v>7300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>7400</v>
       </c>
       <c r="P66" s="3">
         <v>7400</v>
       </c>
       <c r="Q66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="R66" s="3">
         <v>7300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-34000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-30400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,43 +4354,46 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-6800</v>
       </c>
       <c r="O76" s="3">
         <v>-6800</v>
@@ -4220,16 +4405,19 @@
         <v>-6800</v>
       </c>
       <c r="R76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="S76" s="3">
         <v>-6600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,116 +4472,122 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-500</v>
       </c>
       <c r="S81" s="3">
         <v>-500</v>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,17 +4984,17 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -4798,25 +5014,28 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4872,17 +5092,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5020,11 +5249,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5346,25 +5591,28 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5458,14 +5709,14 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>SKVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,105 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -767,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -791,33 +799,39 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -825,11 +839,11 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -867,16 +881,22 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -884,11 +904,11 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -909,25 +929,31 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,53 +1101,59 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-1000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1121,13 +1161,19 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,13 +1257,15 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1229,48 +1283,54 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>-900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>-400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
@@ -1282,49 +1342,55 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,13 +1412,15 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1367,14 +1435,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1388,14 +1456,14 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1405,8 +1473,14 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1423,49 +1497,55 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-300</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1488,34 +1568,34 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>400</v>
@@ -1523,8 +1603,14 @@
       <c r="U22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>400</v>
+      </c>
+      <c r="W22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1541,49 +1627,55 @@
         <v>-400</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
       <c r="J23" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-500</v>
       </c>
       <c r="U23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1798,14 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1718,49 +1822,55 @@
         <v>-400</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
       <c r="J26" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-500</v>
       </c>
       <c r="U26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1777,49 +1887,55 @@
         <v>-400</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
       <c r="J27" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-500</v>
       </c>
       <c r="U27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,13 +2188,19 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2075,14 +2215,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2096,14 +2236,14 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2113,8 +2253,14 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2131,49 +2277,55 @@
         <v>-400</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
       <c r="J33" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-500</v>
       </c>
       <c r="U33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2383,14 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2249,113 +2407,125 @@
         <v>-400</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
       <c r="J35" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-500</v>
       </c>
       <c r="U35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,13 +2572,15 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2445,22 +2619,28 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2554,20 +2740,20 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
@@ -2577,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2594,11 +2786,11 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2622,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
@@ -2636,8 +2828,14 @@
       <c r="U44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2681,22 +2879,28 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2713,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2731,31 +2935,37 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,22 +3023,28 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2872,8 +3088,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2881,7 +3103,7 @@
         <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -2929,10 +3151,16 @@
         <v>200</v>
       </c>
       <c r="U49" s="3">
+        <v>200</v>
+      </c>
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+      <c r="W49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3091,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3413,14 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3203,31 +3455,37 @@
         <v>200</v>
       </c>
       <c r="N54" s="3">
+        <v>200</v>
+      </c>
+      <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,72 +3532,80 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
@@ -3349,191 +3617,209 @@
         <v>800</v>
       </c>
       <c r="H58" s="3">
+        <v>800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1600</v>
       </c>
       <c r="P59" s="3">
         <v>1700</v>
       </c>
       <c r="Q59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>5300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>4900</v>
       </c>
       <c r="M60" s="3">
         <v>5300</v>
       </c>
       <c r="N60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P60" s="3">
         <v>7600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>7300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>5300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>4900</v>
       </c>
       <c r="M66" s="3">
         <v>5300</v>
       </c>
       <c r="N66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P66" s="3">
         <v>7600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-34700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-34400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-34000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-33700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-33300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-32800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-32500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-31900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-31600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-31400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-32000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-31700</v>
       </c>
       <c r="Q72" s="3">
         <v>-31600</v>
       </c>
       <c r="R72" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="T72" s="3">
         <v>-31000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-30400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-29900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-29400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,49 +4723,55 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-4700</v>
       </c>
       <c r="M76" s="3">
         <v>-5100</v>
       </c>
       <c r="N76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-6800</v>
       </c>
       <c r="Q76" s="3">
         <v>-6800</v>
@@ -4408,16 +4780,22 @@
         <v>-6800</v>
       </c>
       <c r="S76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="U76" s="3">
         <v>-6600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-6100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4853,84 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4557,49 +4947,55 @@
         <v>-400</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
       <c r="J81" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-500</v>
       </c>
       <c r="U81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,32 +5403,38 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -5017,13 +5451,13 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5034,8 +5468,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5095,20 +5537,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -5116,8 +5558,14 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5252,14 +5712,14 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5293,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,13 +6038,19 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5594,16 +6086,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -5611,8 +6103,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +6168,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5712,21 +6216,27 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>SKVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,125 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -805,14 +809,14 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -822,19 +826,22 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -845,8 +852,8 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -887,19 +894,22 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -910,8 +920,8 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -935,14 +945,14 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,56 +1124,59 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1167,13 +1187,16 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,16 +1285,17 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1289,63 +1316,66 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>-900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1354,43 +1384,46 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,17 +1447,18 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1441,11 +1475,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1462,11 +1496,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-100</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1574,7 +1614,7 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1583,7 +1623,7 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
@@ -1592,81 +1632,84 @@
         <v>300</v>
       </c>
       <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
         <v>500</v>
-      </c>
-      <c r="S22" s="3">
-        <v>400</v>
       </c>
       <c r="T22" s="3">
         <v>400</v>
       </c>
       <c r="U22" s="3">
+        <v>400</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-500</v>
       </c>
       <c r="V23" s="3">
         <v>-500</v>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,64 +1853,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
       </c>
       <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-500</v>
       </c>
       <c r="V26" s="3">
         <v>-500</v>
@@ -1869,64 +1921,67 @@
       <c r="W26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-500</v>
       </c>
       <c r="V27" s="3">
         <v>-500</v>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,17 +2261,20 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2221,11 +2291,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2242,11 +2312,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2259,64 +2329,67 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-500</v>
       </c>
       <c r="V33" s="3">
         <v>-500</v>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,64 +2465,67 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-500</v>
       </c>
       <c r="V35" s="3">
         <v>-500</v>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,17 +2660,18 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2625,11 +2712,11 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2746,17 +2839,17 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
@@ -2769,28 +2862,31 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2820,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,13 +2984,13 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2908,20 +3010,20 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2941,22 +3043,22 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
-      </c>
-      <c r="U46" s="3">
-        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3103,10 +3214,10 @@
         <v>200</v>
       </c>
       <c r="E49" s="3">
+        <v>200</v>
+      </c>
+      <c r="F49" s="3">
         <v>100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -3157,10 +3268,13 @@
         <v>200</v>
       </c>
       <c r="W49" s="3">
+        <v>200</v>
+      </c>
+      <c r="X49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3337,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3461,31 +3587,34 @@
         <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
       </c>
       <c r="R54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>600</v>
       </c>
       <c r="T54" s="3">
+        <v>600</v>
+      </c>
+      <c r="U54" s="3">
         <v>500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
       <c r="W54" s="3">
+        <v>300</v>
+      </c>
+      <c r="X54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3546,61 +3677,64 @@
         <v>1000</v>
       </c>
       <c r="F57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>1000</v>
       </c>
       <c r="O57" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P57" s="3">
         <v>800</v>
       </c>
       <c r="Q57" s="3">
+        <v>800</v>
+      </c>
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1200</v>
       </c>
       <c r="T57" s="3">
         <v>1200</v>
       </c>
       <c r="U57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,7 +3742,7 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>800</v>
@@ -3623,49 +3757,52 @@
         <v>800</v>
       </c>
       <c r="J58" s="3">
+        <v>800</v>
+      </c>
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>5200</v>
       </c>
       <c r="T58" s="3">
         <v>5200</v>
       </c>
       <c r="U58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V58" s="3">
         <v>5000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,64 +3810,67 @@
         <v>1400</v>
       </c>
       <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1200</v>
       </c>
       <c r="O59" s="3">
         <v>1200</v>
       </c>
       <c r="P59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
-      </c>
-      <c r="U59" s="3">
-        <v>800</v>
       </c>
       <c r="V59" s="3">
         <v>800</v>
       </c>
       <c r="W59" s="3">
+        <v>800</v>
+      </c>
+      <c r="X59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,91 +3878,94 @@
         <v>3100</v>
       </c>
       <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>7400</v>
       </c>
       <c r="S60" s="3">
         <v>7400</v>
       </c>
       <c r="T60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="U60" s="3">
         <v>7300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>7400</v>
       </c>
       <c r="S66" s="3">
         <v>7400</v>
       </c>
       <c r="T66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="U66" s="3">
         <v>7300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-31600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-31000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-30400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-29900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-29400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,52 +4912,55 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-6800</v>
       </c>
       <c r="R76" s="3">
         <v>-6800</v>
@@ -4786,16 +4972,19 @@
         <v>-6800</v>
       </c>
       <c r="U76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="V76" s="3">
         <v>-6600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-6100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,134 +5048,140 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-500</v>
       </c>
       <c r="V81" s="3">
         <v>-500</v>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,17 +5623,20 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -5427,17 +5644,17 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -5457,25 +5674,28 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5543,17 +5764,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5718,11 +5948,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,7 +6299,7 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -6092,25 +6338,28 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6222,14 +6474,14 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>SKVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,131 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -812,14 +815,14 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,11 +846,11 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -855,8 +861,8 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -897,8 +903,11 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,11 +917,11 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -923,8 +932,8 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -948,14 +957,14 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,50 +1155,50 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1190,13 +1209,16 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,10 +1321,10 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1319,66 +1345,69 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>-900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1387,43 +1416,46 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,20 +1480,21 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1478,11 +1511,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1499,11 +1532,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1516,76 +1549,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-100</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
       <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1617,7 +1656,7 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1626,7 +1665,7 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
@@ -1635,25 +1674,28 @@
         <v>300</v>
       </c>
       <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
         <v>500</v>
-      </c>
-      <c r="T22" s="3">
-        <v>400</v>
       </c>
       <c r="U22" s="3">
         <v>400</v>
       </c>
       <c r="V22" s="3">
+        <v>400</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,58 +1703,58 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-500</v>
       </c>
       <c r="W23" s="3">
         <v>-500</v>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1904,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1865,58 +1916,58 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-500</v>
       </c>
       <c r="W26" s="3">
         <v>-500</v>
@@ -1924,8 +1975,11 @@
       <c r="X26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,58 +1987,58 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-500</v>
       </c>
       <c r="W27" s="3">
         <v>-500</v>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,20 +2330,23 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2294,11 +2363,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2315,11 +2384,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2332,8 +2401,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,58 +2413,58 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-500</v>
       </c>
       <c r="W33" s="3">
         <v>-500</v>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,58 +2555,58 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-500</v>
       </c>
       <c r="W35" s="3">
         <v>-500</v>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,20 +2746,21 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2715,11 +2801,11 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2842,17 +2934,17 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
       </c>
       <c r="S43" s="3">
+        <v>200</v>
+      </c>
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2919,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U44" s="3">
         <v>100</v>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2987,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3013,20 +3114,20 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -3046,22 +3147,22 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
-      </c>
-      <c r="V46" s="3">
-        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3217,10 +3327,10 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
+        <v>200</v>
+      </c>
+      <c r="G49" s="3">
         <v>100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -3271,10 +3381,13 @@
         <v>200</v>
       </c>
       <c r="X49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,31 +3525,34 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3460,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3590,31 +3715,34 @@
         <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>400</v>
       </c>
       <c r="S54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T54" s="3">
         <v>600</v>
       </c>
       <c r="U54" s="3">
+        <v>600</v>
+      </c>
+      <c r="V54" s="3">
         <v>500</v>
-      </c>
-      <c r="V54" s="3">
-        <v>300</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3680,72 +3810,75 @@
         <v>1000</v>
       </c>
       <c r="G57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>900</v>
       </c>
       <c r="I57" s="3">
+        <v>900</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>1000</v>
       </c>
       <c r="P57" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
       </c>
       <c r="R57" s="3">
+        <v>800</v>
+      </c>
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1200</v>
       </c>
       <c r="U57" s="3">
         <v>1200</v>
       </c>
       <c r="V57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
@@ -3760,117 +3893,123 @@
         <v>800</v>
       </c>
       <c r="K58" s="3">
+        <v>800</v>
+      </c>
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>5200</v>
       </c>
       <c r="U58" s="3">
         <v>5200</v>
       </c>
       <c r="V58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W58" s="3">
         <v>5000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="3">
         <v>1400</v>
       </c>
       <c r="F59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1200</v>
       </c>
       <c r="P59" s="3">
         <v>1200</v>
       </c>
       <c r="Q59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
-      </c>
-      <c r="V59" s="3">
-        <v>800</v>
       </c>
       <c r="W59" s="3">
         <v>800</v>
       </c>
       <c r="X59" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3881,94 +4020,97 @@
         <v>3100</v>
       </c>
       <c r="F60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>7400</v>
       </c>
       <c r="T60" s="3">
         <v>7400</v>
       </c>
       <c r="U60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="V60" s="3">
         <v>7300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>7400</v>
       </c>
       <c r="T66" s="3">
         <v>7400</v>
       </c>
       <c r="U66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="V66" s="3">
         <v>7300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-32000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-31700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-31600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-31000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-30400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-29900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-29400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,55 +5097,58 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-6800</v>
       </c>
       <c r="S76" s="3">
         <v>-6800</v>
@@ -4975,16 +5160,19 @@
         <v>-6800</v>
       </c>
       <c r="V76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="W76" s="3">
         <v>-6600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-6100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,58 +5327,58 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-500</v>
       </c>
       <c r="W81" s="3">
         <v>-500</v>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,20 +5839,23 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -5647,17 +5863,17 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -5677,25 +5893,28 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5767,17 +5987,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5951,11 +6180,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6302,7 +6547,7 @@
         <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -6341,25 +6586,28 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6477,14 +6728,14 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>SKVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,120 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -779,10 +787,10 @@
         <v>300</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -794,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -818,45 +826,51 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -864,11 +878,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -906,28 +920,34 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -935,11 +955,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -960,25 +980,31 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1155,56 +1195,56 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1212,13 +1252,19 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1364,10 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1321,16 +1375,16 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1348,60 +1402,66 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>-900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>-400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>400</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1413,49 +1473,55 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-100</v>
       </c>
       <c r="Y18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,17 +1558,17 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1514,14 +1582,14 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1535,14 +1603,14 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1552,22 +1620,28 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1582,49 +1656,55 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-300</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
       <c r="X21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1659,34 +1739,34 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
       </c>
       <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
-      </c>
-      <c r="V22" s="3">
-        <v>400</v>
-      </c>
-      <c r="W22" s="3">
-        <v>300</v>
       </c>
       <c r="X22" s="3">
         <v>400</v>
@@ -1694,8 +1774,14 @@
       <c r="Y22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1706,10 +1792,10 @@
         <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
@@ -1724,49 +1810,55 @@
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
       <c r="N23" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-500</v>
       </c>
       <c r="Y23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +2005,14 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1919,10 +2023,10 @@
         <v>-200</v>
       </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
@@ -1937,49 +2041,55 @@
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
       <c r="N26" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-500</v>
       </c>
       <c r="Y26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1990,10 +2100,10 @@
         <v>-200</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
@@ -2008,49 +2118,55 @@
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
-        <v>-300</v>
-      </c>
       <c r="N27" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-500</v>
       </c>
       <c r="Y27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,17 +2482,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2366,14 +2506,14 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2387,14 +2527,14 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2404,8 +2544,14 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2416,10 +2562,10 @@
         <v>-200</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
@@ -2434,49 +2580,55 @@
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
-        <v>-300</v>
-      </c>
       <c r="N33" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-500</v>
       </c>
       <c r="Y33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2698,14 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2558,10 +2716,10 @@
         <v>-200</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
@@ -2576,125 +2734,137 @@
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
-        <v>-300</v>
-      </c>
       <c r="N35" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-500</v>
       </c>
       <c r="Y35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,13 +2919,15 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2765,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2804,22 +2978,28 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2937,20 +3123,20 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3017,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W44" s="3">
         <v>100</v>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3088,36 +3286,42 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -3132,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -3150,31 +3354,37 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>300</v>
-      </c>
-      <c r="U46" s="3">
-        <v>400</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3315,28 +3531,34 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
@@ -3384,10 +3606,16 @@
         <v>200</v>
       </c>
       <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,19 +3762,25 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3554,11 +3794,11 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3582,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>100</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,13 +3916,19 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
@@ -3718,31 +3970,37 @@
         <v>200</v>
       </c>
       <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,7 +4066,7 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
@@ -3813,78 +4075,84 @@
         <v>1000</v>
       </c>
       <c r="H57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>800</v>
       </c>
       <c r="I58" s="3">
         <v>800</v>
@@ -3896,125 +4164,137 @@
         <v>800</v>
       </c>
       <c r="L58" s="3">
+        <v>800</v>
+      </c>
+      <c r="M58" s="3">
+        <v>800</v>
+      </c>
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>5100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>5200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>5200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>5000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>4900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1600</v>
       </c>
       <c r="T59" s="3">
         <v>1700</v>
       </c>
       <c r="U59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="E60" s="3">
         <v>3100</v>
@@ -4023,100 +4303,106 @@
         <v>3100</v>
       </c>
       <c r="G60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>5300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>4900</v>
       </c>
       <c r="Q60" s="3">
         <v>5300</v>
       </c>
       <c r="R60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="S60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T60" s="3">
         <v>7600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>7300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>7300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>6400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F61" s="3">
         <v>2600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>5300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>4900</v>
       </c>
       <c r="Q66" s="3">
         <v>5300</v>
       </c>
       <c r="R66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="S66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T66" s="3">
         <v>7600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-35800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-35600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-35400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-35100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-34700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-34400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-34000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-33700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-33300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-32800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-32500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-31900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-31400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-32000</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-31700</v>
       </c>
       <c r="U72" s="3">
         <v>-31600</v>
       </c>
       <c r="V72" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="X72" s="3">
         <v>-31000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-30400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-29900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-29400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,61 +5466,67 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-4700</v>
       </c>
       <c r="Q76" s="3">
         <v>-5100</v>
       </c>
       <c r="R76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="T76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-6800</v>
       </c>
       <c r="U76" s="3">
         <v>-6800</v>
@@ -5163,16 +5535,22 @@
         <v>-6800</v>
       </c>
       <c r="W76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-6600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5620,96 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5330,10 +5720,10 @@
         <v>-200</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
@@ -5348,49 +5738,55 @@
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
-        <v>-300</v>
-      </c>
       <c r="N81" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-500</v>
       </c>
       <c r="Y81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5860,26 +6294,26 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -5896,13 +6330,13 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5990,20 +6432,20 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6183,14 +6643,14 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,25 +7021,31 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -6589,16 +7081,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,13 +7175,19 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6731,21 +7235,27 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>SKVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,148 +665,152 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -832,14 +836,14 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
@@ -849,19 +853,22 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -869,11 +876,11 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -884,8 +891,8 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -926,19 +933,22 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -946,11 +956,11 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -961,8 +971,8 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -986,14 +996,14 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,59 +1215,59 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-600</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1258,13 +1278,16 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-100</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,19 +1402,19 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1408,75 +1435,78 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>-900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>-400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>100</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1485,43 +1515,46 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,13 +1582,14 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1564,14 +1598,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1588,11 +1622,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1609,11 +1643,11 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1626,85 +1660,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
       <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1785,7 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1754,7 +1794,7 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
@@ -1763,30 +1803,33 @@
         <v>300</v>
       </c>
       <c r="V22" s="3">
+        <v>300</v>
+      </c>
+      <c r="W22" s="3">
         <v>500</v>
-      </c>
-      <c r="W22" s="3">
-        <v>400</v>
       </c>
       <c r="X22" s="3">
         <v>400</v>
       </c>
       <c r="Y22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1798,58 +1841,58 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-500</v>
       </c>
       <c r="Z23" s="3">
         <v>-500</v>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,13 +2060,16 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -2029,58 +2081,58 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-500</v>
       </c>
       <c r="Z26" s="3">
         <v>-500</v>
@@ -2088,13 +2140,16 @@
       <c r="AA26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -2106,58 +2161,58 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-500</v>
       </c>
       <c r="Z27" s="3">
         <v>-500</v>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,13 +2540,16 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2488,14 +2558,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2512,11 +2582,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2533,11 +2603,11 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2550,13 +2620,16 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -2568,58 +2641,58 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-500</v>
       </c>
       <c r="Z33" s="3">
         <v>-500</v>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,13 +2780,16 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -2722,58 +2801,58 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-500</v>
       </c>
       <c r="Z35" s="3">
         <v>-500</v>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,29 +3007,30 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2984,11 +3071,11 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3129,17 +3222,17 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>200</v>
       </c>
       <c r="V43" s="3">
+        <v>200</v>
+      </c>
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3215,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X44" s="3">
         <v>100</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3292,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3306,19 +3405,22 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -3327,20 +3429,20 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -3360,22 +3462,22 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>100</v>
       </c>
       <c r="Z46" s="3">
         <v>100</v>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3549,7 +3660,7 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -3558,10 +3669,10 @@
         <v>200</v>
       </c>
       <c r="I49" s="3">
+        <v>200</v>
+      </c>
+      <c r="J49" s="3">
         <v>100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -3612,10 +3723,13 @@
         <v>200</v>
       </c>
       <c r="AA49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3779,11 +3899,11 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -3800,8 +3920,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3828,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>100</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3931,7 +4057,7 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
@@ -3976,31 +4102,34 @@
         <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="U54" s="3">
         <v>400</v>
       </c>
       <c r="V54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="W54" s="3">
         <v>600</v>
       </c>
       <c r="X54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y54" s="3">
         <v>500</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>300</v>
       </c>
       <c r="Z54" s="3">
         <v>300</v>
       </c>
       <c r="AA54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,19 +4187,20 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>1000</v>
@@ -4081,61 +4212,64 @@
         <v>1000</v>
       </c>
       <c r="J57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K57" s="3">
         <v>900</v>
       </c>
       <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>1000</v>
       </c>
       <c r="S57" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T57" s="3">
         <v>800</v>
       </c>
       <c r="U57" s="3">
+        <v>800</v>
+      </c>
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1200</v>
       </c>
       <c r="X57" s="3">
         <v>1200</v>
       </c>
       <c r="Y57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,19 +4277,19 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
       </c>
       <c r="I58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>800</v>
@@ -4170,134 +4304,140 @@
         <v>800</v>
       </c>
       <c r="N58" s="3">
+        <v>800</v>
+      </c>
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>5200</v>
       </c>
       <c r="X58" s="3">
         <v>5200</v>
       </c>
       <c r="Y58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Z58" s="3">
         <v>5000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1400</v>
       </c>
       <c r="H59" s="3">
         <v>1400</v>
       </c>
       <c r="I59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1200</v>
       </c>
       <c r="S59" s="3">
         <v>1200</v>
       </c>
       <c r="T59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>900</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>800</v>
       </c>
       <c r="Z59" s="3">
         <v>800</v>
       </c>
       <c r="AA59" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3100</v>
       </c>
       <c r="F60" s="3">
         <v>3100</v>
@@ -4309,103 +4449,106 @@
         <v>3100</v>
       </c>
       <c r="I60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>7400</v>
       </c>
       <c r="W60" s="3">
         <v>7400</v>
       </c>
       <c r="X60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Y60" s="3">
         <v>7300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="E61" s="3">
         <v>2700</v>
       </c>
       <c r="F61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G61" s="3">
         <v>2600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>7400</v>
       </c>
       <c r="W66" s="3">
         <v>7400</v>
       </c>
       <c r="X66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Y66" s="3">
         <v>7300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-33700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-33300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-31400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-32000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-31600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-31700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-31600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-31000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-30400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-29900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-29400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,64 +5655,67 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-6800</v>
       </c>
       <c r="V76" s="3">
         <v>-6800</v>
@@ -5541,16 +5727,19 @@
         <v>-6800</v>
       </c>
       <c r="Y76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,95 +5815,101 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
@@ -5726,58 +5921,58 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-500</v>
       </c>
       <c r="Z81" s="3">
         <v>-500</v>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,29 +6490,32 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -6306,17 +6523,17 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -6336,25 +6553,28 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6438,17 +6659,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6649,11 +6879,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7039,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
@@ -7048,7 +7294,7 @@
         <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -7087,25 +7333,28 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,17 +7430,20 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -7241,14 +7493,14 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>SKVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,35 +788,35 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -839,14 +842,14 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>100</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
       <c r="Z8" s="3">
         <v>0</v>
       </c>
@@ -856,22 +859,25 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -879,11 +885,11 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -894,8 +900,8 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -936,22 +942,25 @@
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -959,11 +968,11 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -974,8 +983,8 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -999,14 +1008,14 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,59 +1237,59 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-600</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1281,13 +1300,16 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-100</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1418,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1405,19 +1431,19 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1438,43 +1464,46 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>-900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>-400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,34 +1511,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1518,43 +1547,46 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1601,14 +1634,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1625,11 +1658,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1646,11 +1679,11 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1663,8 +1696,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,79 +1708,82 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
       </c>
       <c r="AA21" s="3">
         <v>-100</v>
       </c>
       <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1788,7 +1827,7 @@
         <v>300</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1797,7 +1836,7 @@
         <v>200</v>
       </c>
       <c r="T22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
@@ -1806,25 +1845,28 @@
         <v>300</v>
       </c>
       <c r="W22" s="3">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
         <v>500</v>
-      </c>
-      <c r="X22" s="3">
-        <v>400</v>
       </c>
       <c r="Y22" s="3">
         <v>400</v>
       </c>
       <c r="Z22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,7 +1874,7 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
@@ -1844,58 +1886,58 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-500</v>
       </c>
       <c r="AA23" s="3">
         <v>-500</v>
@@ -1903,8 +1945,11 @@
       <c r="AB23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2111,11 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2072,7 +2123,7 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
@@ -2084,58 +2135,58 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-500</v>
       </c>
       <c r="AA26" s="3">
         <v>-500</v>
@@ -2143,8 +2194,11 @@
       <c r="AB26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2152,7 +2206,7 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
@@ -2164,58 +2218,58 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-500</v>
       </c>
       <c r="AA27" s="3">
         <v>-500</v>
@@ -2223,8 +2277,11 @@
       <c r="AB27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2561,14 +2630,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2585,11 +2654,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2606,11 +2675,11 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2623,8 +2692,11 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2632,7 +2704,7 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
@@ -2644,58 +2716,58 @@
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-500</v>
       </c>
       <c r="AA33" s="3">
         <v>-500</v>
@@ -2703,8 +2775,11 @@
       <c r="AB33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2858,11 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2792,7 +2870,7 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
@@ -2804,58 +2882,58 @@
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-500</v>
       </c>
       <c r="AA35" s="3">
         <v>-500</v>
@@ -2863,93 +2941,99 @@
       <c r="AB35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3017,23 +3103,23 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -3074,11 +3160,11 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
@@ -3088,8 +3174,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3225,17 +3317,17 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>200</v>
       </c>
       <c r="W43" s="3">
+        <v>200</v>
+      </c>
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3314,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="3">
         <v>100</v>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3394,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>200</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3408,8 +3506,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3417,13 +3518,13 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -3432,20 +3533,20 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -3465,22 +3566,22 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>100</v>
       </c>
       <c r="AA46" s="3">
         <v>100</v>
@@ -3488,8 +3589,11 @@
       <c r="AB46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3755,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3663,7 +3773,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -3672,10 +3782,10 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
+        <v>200</v>
+      </c>
+      <c r="K49" s="3">
         <v>100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
@@ -3726,10 +3836,13 @@
         <v>200</v>
       </c>
       <c r="AB49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3902,11 +4021,11 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -3923,8 +4042,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3951,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>100</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,19 +4170,22 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>300</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
@@ -4105,31 +4230,34 @@
         <v>200</v>
       </c>
       <c r="U54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>400</v>
       </c>
       <c r="W54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="X54" s="3">
         <v>600</v>
       </c>
       <c r="Y54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z54" s="3">
         <v>500</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>300</v>
       </c>
       <c r="AA54" s="3">
         <v>300</v>
       </c>
       <c r="AB54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,22 +4317,23 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>1000</v>
@@ -4215,84 +4345,87 @@
         <v>1000</v>
       </c>
       <c r="K57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L57" s="3">
         <v>900</v>
       </c>
       <c r="M57" s="3">
+        <v>900</v>
+      </c>
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>1000</v>
       </c>
       <c r="T57" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="U57" s="3">
         <v>800</v>
       </c>
       <c r="V57" s="3">
+        <v>800</v>
+      </c>
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
-      </c>
-      <c r="X57" s="3">
-        <v>1200</v>
       </c>
       <c r="Y57" s="3">
         <v>1200</v>
       </c>
       <c r="Z57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA57" s="3">
         <v>1000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K58" s="3">
         <v>800</v>
@@ -4307,129 +4440,135 @@
         <v>800</v>
       </c>
       <c r="O58" s="3">
+        <v>800</v>
+      </c>
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5100</v>
-      </c>
-      <c r="X58" s="3">
-        <v>5200</v>
       </c>
       <c r="Y58" s="3">
         <v>5200</v>
       </c>
       <c r="Z58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AA58" s="3">
         <v>5000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1400</v>
       </c>
       <c r="I59" s="3">
         <v>1400</v>
       </c>
       <c r="J59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1200</v>
       </c>
       <c r="T59" s="3">
         <v>1200</v>
       </c>
       <c r="U59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>900</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>800</v>
       </c>
       <c r="AA59" s="3">
         <v>800</v>
       </c>
       <c r="AB59" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4437,10 +4576,10 @@
         <v>3600</v>
       </c>
       <c r="E60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3100</v>
       </c>
       <c r="G60" s="3">
         <v>3100</v>
@@ -4452,106 +4591,109 @@
         <v>3100</v>
       </c>
       <c r="J60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>7400</v>
       </c>
       <c r="X60" s="3">
         <v>7400</v>
       </c>
       <c r="Y60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Z60" s="3">
         <v>7300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2900</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2700</v>
       </c>
       <c r="F61" s="3">
         <v>2700</v>
       </c>
       <c r="G61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H61" s="3">
         <v>2600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>7400</v>
       </c>
       <c r="X66" s="3">
         <v>7400</v>
       </c>
       <c r="Y66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Z66" s="3">
         <v>7300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-35100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-34000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-33700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-33300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-32500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-31600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-31400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-31600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-31700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-31600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-31000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-30400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-29900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-29400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,67 +5840,70 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-6800</v>
       </c>
       <c r="W76" s="3">
         <v>-6800</v>
@@ -5730,16 +5915,19 @@
         <v>-6800</v>
       </c>
       <c r="Z76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-6100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6006,99 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5912,7 +6106,7 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
@@ -5924,58 +6118,58 @@
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-500</v>
       </c>
       <c r="AA81" s="3">
         <v>-500</v>
@@ -5983,8 +6177,11 @@
       <c r="AB81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,23 +6718,23 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -6526,17 +6742,17 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -6556,25 +6772,28 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6662,17 +6882,17 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>4</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6882,11 +7111,11 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7288,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
@@ -7297,7 +7542,7 @@
         <v>-100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -7336,25 +7581,28 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
-      </c>
-      <c r="X100" s="3">
-        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7442,11 +7693,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -7496,14 +7747,14 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>SKVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -791,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -806,10 +814,10 @@
         <v>300</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -821,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -845,33 +853,39 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>100</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
       <c r="AB8" s="3">
         <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -882,20 +896,20 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -903,11 +917,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -945,40 +959,46 @@
       <c r="AC9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -986,11 +1006,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -1011,25 +1031,31 @@
         <v>0</v>
       </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>100</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
       <c r="AC10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,62 +1280,62 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-1000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-600</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
@@ -1303,13 +1343,19 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-100</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,8 +1471,10 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1434,22 +1488,22 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1467,43 +1521,49 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>-900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>-400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>400</v>
       </c>
       <c r="AA17" s="3">
         <v>200</v>
       </c>
       <c r="AB17" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AC17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1514,25 +1574,25 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1544,49 +1604,55 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-100</v>
       </c>
       <c r="AC18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1637,17 +1705,17 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1661,14 +1729,14 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1682,14 +1750,14 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
@@ -1699,8 +1767,14 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1711,22 +1785,22 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>200</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -1741,57 +1815,63 @@
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-300</v>
       </c>
       <c r="AA21" s="3">
         <v>-100</v>
       </c>
       <c r="AB21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1830,34 +1910,34 @@
         <v>300</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
       <c r="U22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>300</v>
       </c>
       <c r="X22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="3">
         <v>500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>400</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>400</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>300</v>
       </c>
       <c r="AB22" s="3">
         <v>400</v>
@@ -1865,22 +1945,28 @@
       <c r="AC22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1889,10 +1975,10 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
@@ -1907,49 +1993,55 @@
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
-      </c>
       <c r="R23" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-700</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-500</v>
       </c>
       <c r="AC23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,22 +2212,28 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -2138,10 +2242,10 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
@@ -2156,63 +2260,69 @@
         <v>-400</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
-      </c>
       <c r="R26" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-700</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-500</v>
       </c>
       <c r="AC26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
@@ -2221,10 +2331,10 @@
         <v>-200</v>
       </c>
       <c r="J27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
@@ -2239,49 +2349,55 @@
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
-      </c>
       <c r="R27" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-700</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-500</v>
       </c>
       <c r="AC27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2633,17 +2773,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2657,14 +2797,14 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2678,14 +2818,14 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
@@ -2695,22 +2835,28 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
@@ -2719,10 +2865,10 @@
         <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
@@ -2737,49 +2883,55 @@
         <v>-400</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
-      </c>
       <c r="R33" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-700</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-500</v>
       </c>
       <c r="AC33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,22 +3013,28 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
@@ -2885,10 +3043,10 @@
         <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
@@ -2903,137 +3061,149 @@
         <v>-400</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
-      </c>
       <c r="R35" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-700</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-500</v>
       </c>
       <c r="AC35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,25 +3266,27 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -3124,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -3163,22 +3337,28 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3320,20 +3506,20 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>0</v>
-      </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
@@ -3343,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3412,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="Y44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="3">
         <v>100</v>
@@ -3426,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3495,22 +3693,28 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3521,22 +3725,22 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -3551,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -3569,31 +3773,37 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
-      </c>
-      <c r="X46" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>400</v>
       </c>
       <c r="Z46" s="3">
         <v>300</v>
       </c>
       <c r="AA46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AB46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3758,8 +3974,14 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3776,22 +3998,22 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -3839,10 +4061,16 @@
         <v>200</v>
       </c>
       <c r="AC49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4024,14 +4264,14 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -4045,11 +4285,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -4073,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>100</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>4</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,8 +4419,14 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4182,16 +4434,16 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
@@ -4233,31 +4485,37 @@
         <v>200</v>
       </c>
       <c r="V54" s="3">
+        <v>200</v>
+      </c>
+      <c r="W54" s="3">
+        <v>200</v>
+      </c>
+      <c r="X54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,28 +4578,30 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>900</v>
       </c>
       <c r="H57" s="3">
         <v>1000</v>
       </c>
       <c r="I57" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>1000</v>
@@ -4348,61 +4610,67 @@
         <v>1000</v>
       </c>
       <c r="L57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4410,28 +4678,28 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>800</v>
@@ -4443,149 +4711,161 @@
         <v>800</v>
       </c>
       <c r="P58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>5200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>5000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>5100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>5200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>5200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>5000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>4900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1600</v>
       </c>
       <c r="X59" s="3">
         <v>1700</v>
       </c>
       <c r="Y59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3100</v>
       </c>
       <c r="I60" s="3">
         <v>3100</v>
@@ -4594,112 +4874,118 @@
         <v>3100</v>
       </c>
       <c r="K60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>5300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>4900</v>
       </c>
       <c r="U60" s="3">
         <v>5300</v>
       </c>
       <c r="V60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="W60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="X60" s="3">
         <v>7600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>7300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>7400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>7400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>7300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>6900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>6400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F61" s="3">
         <v>3200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4733,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F66" s="3">
         <v>6900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>5300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>4900</v>
       </c>
       <c r="U66" s="3">
         <v>5300</v>
       </c>
       <c r="V66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="W66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="X66" s="3">
         <v>7600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>7300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>6900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>6400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-37000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-36600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-36200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-36000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-35800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-35600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-35400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-35100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-34700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-34400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-34000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-33700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-33300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-32800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-32500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-31900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-31600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-31400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-32000</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-31700</v>
       </c>
       <c r="Y72" s="3">
         <v>-31600</v>
       </c>
       <c r="Z72" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-31000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-30400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-29900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-29400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,73 +6209,79 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-6600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-4700</v>
       </c>
       <c r="U76" s="3">
         <v>-5100</v>
       </c>
       <c r="V76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="X76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-6800</v>
       </c>
       <c r="Y76" s="3">
         <v>-6800</v>
@@ -5918,16 +6290,22 @@
         <v>-6800</v>
       </c>
       <c r="AA76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-6600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,110 +6387,122 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
@@ -6121,10 +6511,10 @@
         <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
@@ -6139,49 +6529,55 @@
         <v>-400</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
-      </c>
       <c r="R81" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-700</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-500</v>
       </c>
       <c r="AC81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6718,10 +7152,10 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -6739,26 +7173,26 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -6775,13 +7209,13 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>100</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
@@ -6792,8 +7226,14 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6885,20 +7327,20 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>4</v>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7114,14 +7574,14 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -7155,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7536,19 +8028,19 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -7584,16 +8076,16 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>100</v>
@@ -7601,8 +8093,14 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +8182,14 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7693,17 +8197,17 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -7750,21 +8254,27 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>SKVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -805,35 +809,35 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -859,14 +863,14 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>100</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
       <c r="AC8" s="3">
         <v>0</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -890,17 +897,17 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -908,11 +915,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -923,8 +930,8 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,29 +989,29 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -1012,8 +1022,8 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -1037,14 +1047,14 @@
         <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>100</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
       <c r="AC10" s="3">
         <v>0</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,22 +1306,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1309,36 +1329,36 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-1000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-600</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
@@ -1349,13 +1369,16 @@
         <v>0</v>
       </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>-100</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,13 +1499,14 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1494,19 +1521,19 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1527,43 +1554,46 @@
         <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>-900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>-400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1580,34 +1610,34 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1616,43 +1646,46 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1711,14 +1745,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1735,11 +1769,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1756,11 +1790,11 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1791,79 +1828,82 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-100</v>
       </c>
       <c r="AD21" s="3">
         <v>-100</v>
       </c>
       <c r="AE21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1871,10 +1911,10 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>1400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1916,7 +1956,7 @@
         <v>300</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
@@ -1925,7 +1965,7 @@
         <v>200</v>
       </c>
       <c r="W22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>300</v>
@@ -1934,42 +1974,45 @@
         <v>300</v>
       </c>
       <c r="Z22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA22" s="3">
         <v>500</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>400</v>
       </c>
       <c r="AB22" s="3">
         <v>400</v>
       </c>
       <c r="AC22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD22" s="3">
         <v>300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>400</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
@@ -1981,58 +2024,58 @@
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-400</v>
       </c>
       <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-700</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>-500</v>
       </c>
       <c r="AD23" s="3">
         <v>-500</v>
@@ -2040,8 +2083,11 @@
       <c r="AE23" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,25 +2267,28 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
@@ -2248,58 +2300,58 @@
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
       </c>
       <c r="R26" s="3">
         <v>-400</v>
       </c>
       <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-700</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>-500</v>
       </c>
       <c r="AD26" s="3">
         <v>-500</v>
@@ -2307,25 +2359,28 @@
       <c r="AE26" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
@@ -2337,58 +2392,58 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-400</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-700</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-500</v>
       </c>
       <c r="AD27" s="3">
         <v>-500</v>
@@ -2396,8 +2451,11 @@
       <c r="AE27" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2779,14 +2849,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2803,11 +2873,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2824,11 +2894,11 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
@@ -2841,25 +2911,28 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
@@ -2871,58 +2944,58 @@
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-700</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-500</v>
       </c>
       <c r="AD33" s="3">
         <v>-500</v>
@@ -2930,8 +3003,11 @@
       <c r="AE33" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,25 +3095,28 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
@@ -3049,58 +3128,58 @@
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-700</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-500</v>
       </c>
       <c r="AD35" s="3">
         <v>-500</v>
@@ -3108,102 +3187,108 @@
       <c r="AE35" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3280,29 +3367,29 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -3343,11 +3430,11 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
       <c r="AC41" s="3">
         <v>0</v>
       </c>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3512,17 +3605,17 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
         <v>200</v>
       </c>
       <c r="Z43" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
       <c r="AB43" s="3">
         <v>0</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3610,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="3">
         <v>100</v>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3699,13 +3798,13 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>200</v>
       </c>
       <c r="AC45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3731,13 +3833,13 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -3746,20 +3848,20 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -3779,22 +3881,22 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
         <v>200</v>
       </c>
       <c r="Z46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>300</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>100</v>
       </c>
       <c r="AD46" s="3">
         <v>100</v>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4004,7 +4115,7 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -4013,10 +4124,10 @@
         <v>200</v>
       </c>
       <c r="M49" s="3">
+        <v>200</v>
+      </c>
+      <c r="N49" s="3">
         <v>100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>200</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -4067,10 +4178,13 @@
         <v>200</v>
       </c>
       <c r="AE49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4270,11 +4390,11 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -4291,8 +4411,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -4319,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
         <v>100</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4440,13 +4566,13 @@
         <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
       </c>
       <c r="I54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
@@ -4491,31 +4617,34 @@
         <v>200</v>
       </c>
       <c r="X54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Y54" s="3">
         <v>400</v>
       </c>
       <c r="Z54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AA54" s="3">
         <v>600</v>
       </c>
       <c r="AB54" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC54" s="3">
         <v>500</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>300</v>
       </c>
       <c r="AD54" s="3">
         <v>300</v>
       </c>
       <c r="AE54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,31 +4710,32 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1000</v>
       </c>
       <c r="K57" s="3">
         <v>1000</v>
@@ -4616,61 +4747,64 @@
         <v>1000</v>
       </c>
       <c r="N57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O57" s="3">
         <v>900</v>
       </c>
       <c r="P57" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
       </c>
       <c r="U57" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>1000</v>
       </c>
       <c r="W57" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="X57" s="3">
         <v>800</v>
       </c>
       <c r="Y57" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>600</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>1200</v>
       </c>
       <c r="AB57" s="3">
         <v>1200</v>
       </c>
       <c r="AC57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AD57" s="3">
         <v>1000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>800</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4684,25 +4818,25 @@
         <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
       </c>
       <c r="K58" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
       </c>
       <c r="M58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N58" s="3">
         <v>800</v>
@@ -4717,158 +4851,164 @@
         <v>800</v>
       </c>
       <c r="R58" s="3">
+        <v>800</v>
+      </c>
+      <c r="S58" s="3">
         <v>2300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5100</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>5200</v>
       </c>
       <c r="AB58" s="3">
         <v>5200</v>
       </c>
       <c r="AC58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AD58" s="3">
         <v>5000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>4900</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1400</v>
       </c>
       <c r="L59" s="3">
         <v>1400</v>
       </c>
       <c r="M59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1200</v>
       </c>
       <c r="W59" s="3">
         <v>1200</v>
       </c>
       <c r="X59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>900</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>800</v>
       </c>
       <c r="AD59" s="3">
         <v>800</v>
       </c>
       <c r="AE59" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3600</v>
       </c>
       <c r="G60" s="3">
         <v>3600</v>
       </c>
       <c r="H60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I60" s="3">
         <v>3400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3100</v>
       </c>
       <c r="J60" s="3">
         <v>3100</v>
@@ -4880,115 +5020,118 @@
         <v>3100</v>
       </c>
       <c r="M60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7300</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>7400</v>
       </c>
       <c r="AA60" s="3">
         <v>7400</v>
       </c>
       <c r="AB60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="AC60" s="3">
         <v>7300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>6400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E61" s="3">
         <v>5600</v>
       </c>
       <c r="F61" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G61" s="3">
         <v>3200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2700</v>
       </c>
       <c r="I61" s="3">
         <v>2700</v>
       </c>
       <c r="J61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
         <v>8600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7300</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>7400</v>
       </c>
       <c r="AA66" s="3">
         <v>7400</v>
       </c>
       <c r="AB66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="AC66" s="3">
         <v>7300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>6400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-37000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-35800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-34700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-34400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-33700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-33300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-32500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-31900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-31600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-31400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-31600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-31700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-31600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-31000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-30400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-29900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-29400</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,76 +6398,79 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-5100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-6800</v>
       </c>
       <c r="Z76" s="3">
         <v>-6800</v>
@@ -6296,16 +6482,19 @@
         <v>-6800</v>
       </c>
       <c r="AC76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-6600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-6100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,119 +6582,125 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
@@ -6517,58 +6712,58 @@
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-700</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-500</v>
       </c>
       <c r="AD81" s="3">
         <v>-500</v>
@@ -6576,8 +6771,11 @@
       <c r="AE81" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,41 +7357,44 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -7185,17 +7402,17 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -7215,25 +7432,28 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
-      <c r="AE89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7333,17 +7554,17 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>4</v>
+      <c r="AB91" s="3">
+        <v>0</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>4</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7580,11 +7810,11 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8034,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
@@ -8043,7 +8289,7 @@
         <v>-100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -8082,25 +8328,28 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>100</v>
       </c>
       <c r="AC100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
-      <c r="AE100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,29 +8437,32 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -8260,14 +8512,14 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
